--- a/pred_ohlcv/54_21/2020-01-10 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-10 ETH ohlcv.xlsx
@@ -2368,7 +2368,7 @@
         <v>413.286065125926</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>413.286065125926</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>569.7383736779374</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>575.5468736779374</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>527.1082250815556</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>530.9288250815556</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>530.9288250815556</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>530.9288250815556</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>531.4288250815556</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>532.7629250815556</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>476.8207250815556</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>478.4345250815556</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>467.5928250815556</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>509.0927250815556</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>587.6990250815556</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>546.9829250815557</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>554.2156250815557</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>574.5873250815557</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>574.5873250815557</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>517.6976250815558</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>442.6533888370143</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>473.7694888370143</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>376.6951888370143</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>383.6880014928747</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>382.8645014928746</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>382.8645014928746</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>395.9000014928747</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>465.2850281429369</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>464.9680281429369</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>530.2428014928746</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>530.2428014928746</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>501.6323014928746</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>501.6323014928746</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>501.6323014928746</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>370.1225014928746</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>384.4092014928746</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>451.4376014928746</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>423.1352014928746</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>443.3279014928746</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>441.8250014928746</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>441.8250014928746</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>441.8250014928746</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-3200.454170757322</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-3198.268970757322</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-3198.268970757322</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-3204.166470757322</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-3204.166470757322</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-3204.166470757322</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-3209.016670757322</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-3197.162525103621</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-3212.511825103621</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-2710.096708344425</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-2710.096708344425</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-2705.287108344425</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-2804.017008344425</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-2804.017008344425</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-3046.215208344425</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-3006.179208344425</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-2997.743008344425</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-2963.961408344425</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-10 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-10 ETH ohlcv.xlsx
@@ -2368,7 +2368,7 @@
         <v>413.286065125926</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>413.286065125926</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>565.2148299279373</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>565.2148299279373</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>569.7383736779374</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>569.7383736779374</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>569.7383736779374</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>575.5468736779374</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>527.1082250815556</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>530.9288250815556</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>530.9288250815556</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>530.9288250815556</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>531.4288250815556</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>532.7629250815556</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>476.8207250815556</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>587.6990250815556</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>546.9829250815557</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>554.2156250815557</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>574.5873250815557</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>442.6533888370143</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>473.7694888370143</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>447.2048014928747</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>465.2850281429369</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>464.9680281429369</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>530.2428014928746</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>530.2428014928746</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>501.6323014928746</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>501.6323014928746</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>501.6323014928746</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>370.1225014928746</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>384.4092014928746</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>451.4376014928746</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>423.1352014928746</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>443.3279014928746</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>441.8250014928746</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>441.8250014928746</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>76.14060149287462</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>76.14060149287462</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>73.14060149287462</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>73.14060149287462</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>67.73160149287462</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-3176.467670757322</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-3176.467670757322</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-3176.467670757322</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-3176.191570757322</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-3176.191570757322</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-3200.454170757322</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-3200.454170757322</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-3198.756070757322</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-3198.123970757322</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-3198.268970757322</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-3198.268970757322</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-3209.016670757322</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-3197.162525103621</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-3209.778425103621</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-3210.161825103621</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-3212.511825103621</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-3204.44362510362</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-2762.494108344426</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-2710.096708344425</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-2710.096708344425</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-2705.287108344425</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-2792.082608344425</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-2804.017008344425</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-2804.017008344425</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-3046.215208344425</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-3006.179208344425</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-2997.743008344425</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-2963.961408344425</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
